--- a/AMCSmokeTest/ExcelFile/API_inputs.xlsx
+++ b/AMCSmokeTest/ExcelFile/API_inputs.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chaitanya\eclipse-workspace\com.amccms.test\ExcelFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chaitanya\eclipse-workspace\AMCSmokeTest\ExcelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14115" windowHeight="2490" tabRatio="903" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14115" windowHeight="2490" tabRatio="903" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="RLtoWOPMappingRule" sheetId="12" state="hidden" r:id="rId1"/>
@@ -17,34 +17,30 @@
     <sheet name="XmlDataCountReading" sheetId="35" state="hidden" r:id="rId3"/>
     <sheet name="FDIDNUMBERS" sheetId="36" r:id="rId4"/>
     <sheet name="NonProdLoginCredentials" sheetId="37" r:id="rId5"/>
-    <sheet name="ZeusXML" sheetId="13" state="hidden" r:id="rId6"/>
-    <sheet name="DatabaseCredentials" sheetId="25" r:id="rId7"/>
-    <sheet name="RLAPI" sheetId="19" state="hidden" r:id="rId8"/>
-    <sheet name="SymboxAPI" sheetId="34" state="hidden" r:id="rId9"/>
-    <sheet name="WOPAPIMASTER" sheetId="22" state="hidden" r:id="rId10"/>
-    <sheet name="WOPAPIASSET" sheetId="26" state="hidden" r:id="rId11"/>
-    <sheet name="TVRatingConversions" sheetId="32" state="hidden" r:id="rId12"/>
-    <sheet name="WOPAPIASSET1" sheetId="29" state="hidden" r:id="rId13"/>
-    <sheet name="TV_RATING_ZtoWOP" sheetId="27" state="hidden" r:id="rId14"/>
-    <sheet name="ZuesFields" sheetId="33" state="hidden" r:id="rId15"/>
-    <sheet name="MPAPI" sheetId="23" state="hidden" r:id="rId16"/>
-    <sheet name="Aspect_Ratio_ZtoWOP" sheetId="17" state="hidden" r:id="rId17"/>
-    <sheet name="Queries" sheetId="24" r:id="rId18"/>
-    <sheet name="WOP" sheetId="11" state="hidden" r:id="rId19"/>
-    <sheet name="RL" sheetId="10" state="hidden" r:id="rId20"/>
-    <sheet name="MP" sheetId="15" state="hidden" r:id="rId21"/>
+    <sheet name="ExecutionModel" sheetId="39" r:id="rId6"/>
+    <sheet name="ZeusXML" sheetId="13" state="hidden" r:id="rId7"/>
+    <sheet name="DatabaseCredentials" sheetId="25" r:id="rId8"/>
+    <sheet name="RLAPI" sheetId="19" state="hidden" r:id="rId9"/>
+    <sheet name="SymboxAPI" sheetId="34" state="hidden" r:id="rId10"/>
+    <sheet name="WOPAPIMASTER" sheetId="22" state="hidden" r:id="rId11"/>
+    <sheet name="WOPAPIASSET" sheetId="26" state="hidden" r:id="rId12"/>
+    <sheet name="TVRatingConversions" sheetId="32" state="hidden" r:id="rId13"/>
+    <sheet name="WOPAPIASSET1" sheetId="29" state="hidden" r:id="rId14"/>
+    <sheet name="TV_RATING_ZtoWOP" sheetId="27" state="hidden" r:id="rId15"/>
+    <sheet name="ZuesFields" sheetId="33" state="hidden" r:id="rId16"/>
+    <sheet name="MPAPI" sheetId="23" state="hidden" r:id="rId17"/>
+    <sheet name="Aspect_Ratio_ZtoWOP" sheetId="17" state="hidden" r:id="rId18"/>
+    <sheet name="Queries" sheetId="24" r:id="rId19"/>
+    <sheet name="WOP" sheetId="11" state="hidden" r:id="rId20"/>
+    <sheet name="RL" sheetId="10" state="hidden" r:id="rId21"/>
+    <sheet name="MP" sheetId="15" state="hidden" r:id="rId22"/>
   </sheets>
   <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="163">
   <si>
     <t>Content-Type</t>
   </si>
@@ -642,7 +638,28 @@
 </t>
   </si>
   <si>
-    <t>FD045448</t>
+    <t>TestCaseID</t>
+  </si>
+  <si>
+    <t>Execute</t>
+  </si>
+  <si>
+    <t>TestRailID</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>WOPHierarchyCreationTest</t>
+  </si>
+  <si>
+    <t>MPHierarchyCreationTest</t>
+  </si>
+  <si>
+    <t>MediatorHierarchyCreationTest</t>
+  </si>
+  <si>
+    <t>FD105792</t>
   </si>
 </sst>
 </file>
@@ -652,9 +669,16 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -743,6 +767,20 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202020"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -782,48 +820,50 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -844,28 +884,31 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="20" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="20">
+  <cellStyles count="22">
     <cellStyle name="Comma" xfId="19" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -885,7 +928,9 @@
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
+    <cellStyle name="Hyperlink 2" xfId="21"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="20"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1376,6 +1421,68 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="38.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="16" customFormat="1">
+      <c r="A1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
@@ -1483,7 +1590,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -1595,7 +1702,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -1660,7 +1767,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -1766,7 +1873,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1802,7 +1909,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A10"/>
   <sheetViews>
@@ -1870,7 +1977,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -1931,7 +2038,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -1969,7 +2076,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -1996,224 +2103,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
-  <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="1" width="28" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="0.125" style="16" customWidth="1"/>
-    <col min="3" max="3" width="134.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" style="16" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="16"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>116</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A9" r:id="rId1" display="http://jsonviewer.stack.hu/"/>
-    <hyperlink ref="C10" r:id="rId2" display="http://jsonviewer.stack.hu/"/>
-    <hyperlink ref="C11" r:id="rId3" display="http://jsonviewer.stack.hu/"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -2343,6 +2232,224 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="28" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="0.125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="134.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" style="16" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A9" r:id="rId1" display="http://jsonviewer.stack.hu/"/>
+    <hyperlink ref="C10" r:id="rId2" display="http://jsonviewer.stack.hu/"/>
+    <hyperlink ref="C11" r:id="rId3" display="http://jsonviewer.stack.hu/"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2478,7 +2585,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -2640,7 +2747,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
@@ -2649,7 +2758,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2698,6 +2807,68 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="26.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="35">
+        <v>17399</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="35">
+        <v>17404</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" s="35">
+        <v>17405</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2716,7 +2887,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -2758,7 +2929,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -2845,66 +3016,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="1" width="38.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="16" customFormat="1">
-      <c r="A1" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/AMCSmokeTest/ExcelFile/API_inputs.xlsx
+++ b/AMCSmokeTest/ExcelFile/API_inputs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14115" windowHeight="2490" tabRatio="903" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13485" windowHeight="6060" tabRatio="903" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="RLtoWOPMappingRule" sheetId="12" state="hidden" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="165">
   <si>
     <t>Content-Type</t>
   </si>
@@ -661,6 +661,12 @@
   <si>
     <t>FD105792</t>
   </si>
+  <si>
+    <t>simpleTest</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
 </sst>
 </file>
 
@@ -669,9 +675,16 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -796,7 +809,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -819,51 +832,62 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -884,29 +908,31 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="20" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="20" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="22">
     <cellStyle name="Comma" xfId="19" builtinId="3"/>
@@ -2807,10 +2833,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A5" sqref="A5:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2860,6 +2886,17 @@
       </c>
       <c r="C4" s="35">
         <v>17405</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="B5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" s="37">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/AMCSmokeTest/ExcelFile/API_inputs.xlsx
+++ b/AMCSmokeTest/ExcelFile/API_inputs.xlsx
@@ -31,16 +31,21 @@
     <sheet name="MPAPI" sheetId="23" state="hidden" r:id="rId17"/>
     <sheet name="Aspect_Ratio_ZtoWOP" sheetId="17" state="hidden" r:id="rId18"/>
     <sheet name="Queries" sheetId="24" r:id="rId19"/>
-    <sheet name="WOP" sheetId="11" state="hidden" r:id="rId20"/>
-    <sheet name="RL" sheetId="10" state="hidden" r:id="rId21"/>
-    <sheet name="MP" sheetId="15" state="hidden" r:id="rId22"/>
+    <sheet name="source" sheetId="40" r:id="rId20"/>
+    <sheet name="WOPAPI" sheetId="46" r:id="rId21"/>
+    <sheet name="WOPData" sheetId="43" r:id="rId22"/>
+    <sheet name="MPData" sheetId="44" r:id="rId23"/>
+    <sheet name="APIMP" sheetId="42" r:id="rId24"/>
+    <sheet name="WOP" sheetId="11" state="hidden" r:id="rId25"/>
+    <sheet name="RL" sheetId="10" state="hidden" r:id="rId26"/>
+    <sheet name="MP" sheetId="15" state="hidden" r:id="rId27"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="184">
   <si>
     <t>Content-Type</t>
   </si>
@@ -597,6 +602,27 @@
     <t>Walking456</t>
   </si>
   <si>
+    <t>TestCaseID</t>
+  </si>
+  <si>
+    <t>Execute</t>
+  </si>
+  <si>
+    <t>TestRailID</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>FD105792</t>
+  </si>
+  <si>
+    <t>simpleTest</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
     <t xml:space="preserve">with xmlnamespaces ('http://schemahost.amcnetworks.com:8080/amcnesb/schemas' as NS1
  )
  SELECT
@@ -612,9 +638,10 @@
        case when inner_query.Status2 = '' and len(inner_query.ErrorMessage) &gt; 0 then 'Error' else inner_query.Status2 end as status,
        inner_query.ErrorMessage,
       -- inner_query.RecordedOn, inner_query.Bid,
-          -- inner_query.Message,
+           inner_query.Message,
       -- inner_query.Event, inner_query.Source_System,inner_query.EventId,inner_query.ReqId
-         inner_query.Event, inner_query.Source_System
+        -- inner_query.Event, 
+         inner_query.Source_System
       from
       (SELECT
       case
@@ -638,34 +665,88 @@
 </t>
   </si>
   <si>
-    <t>TestCaseID</t>
-  </si>
-  <si>
-    <t>Execute</t>
-  </si>
-  <si>
-    <t>TestRailID</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>WOPHierarchyCreationTest</t>
-  </si>
-  <si>
-    <t>MPHierarchyCreationTest</t>
-  </si>
-  <si>
-    <t>MediatorHierarchyCreationTest</t>
-  </si>
-  <si>
-    <t>FD105792</t>
-  </si>
-  <si>
-    <t>simpleTest</t>
-  </si>
-  <si>
-    <t>No</t>
+    <t>TITLE</t>
+  </si>
+  <si>
+    <t>SOURCE_SYSTEM,CMSNV,0,RL,DATA,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"username":"restRightsLogic5", "password": "abcd1234"} </t>
+  </si>
+  <si>
+    <t>Bearer,application/xml,Bearer,https://cap-sg-prd-4.integration.ibmcloud.com:17433,/dev/program/getEpisodeSeasonSeries/externalReference/%s,asit-wo-101059121-50697,cebff59a-4e80-4a47-9c2a-6e25ec3c5397</t>
+  </si>
+  <si>
+    <t>&lt;soapenv:Envelope xmlns:soapenv="http://schemas.xmlsoap.org/soap/envelope/" xmlns:xyt="urn:xytechsystems.com/XytechAPI" xmlns:xyt1="http://schemas.datacontract.org/2004/07/Xytech.MP.API"&gt;
+   &lt;soapenv:Header/&gt;
+   &lt;soapenv:Body&gt;
+      &lt;xyt:Retrieve&gt;
+         &lt;!--Optional:--&gt;
+         &lt;xyt:credentials&gt;
+                                   &lt;xyt1:DBName&gt;AMC_TEST&lt;/xyt1:DBName&gt;
+                                   &lt;xyt1:Password&gt;xytechpw&lt;/xyt1:Password&gt;
+                                   &lt;xyt1:UserID&gt;xytech&lt;/xyt1:UserID&gt;
+                                &lt;/xyt:credentials&gt;
+         &lt;!--Optional:--&gt;
+         &lt;xyt:className&gt;LibTitle&lt;/xyt:className&gt;
+         &lt;!--Optional:--&gt;
+         &lt;xyt:keyName&gt;external_key&lt;/xyt:keyName&gt;
+         &lt;!--Optional:--&gt;
+         &lt;xyt:key&gt;%s&lt;/xyt:key&gt;
+      &lt;/xyt:Retrieve&gt;
+   &lt;/soapenv:Body&gt;
+&lt;/soapenv:Envelope&gt;</t>
+  </si>
+  <si>
+    <t>RLA_RL_ASSET_ID</t>
+  </si>
+  <si>
+    <t>SOURCE_SYSTEM,CMSNV,0,TITLE_VERSIONS</t>
+  </si>
+  <si>
+    <t>Object Types</t>
+  </si>
+  <si>
+    <t>tdc:TITLE_CUST_field_71</t>
+  </si>
+  <si>
+    <t>episodeNumber</t>
+  </si>
+  <si>
+    <t>EPISODE_NUMBER</t>
+  </si>
+  <si>
+    <t>VENDOR</t>
+  </si>
+  <si>
+    <t>PRODUCT_INTENTION</t>
+  </si>
+  <si>
+    <t>ES_PRODUCT,p_episode_series,ES_PRODUCT,p_product_intention,ESP_INTENTION</t>
+  </si>
+  <si>
+    <t>AIRING_ORDER</t>
+  </si>
+  <si>
+    <t>Episode_Number</t>
+  </si>
+  <si>
+    <t>AiringOrder</t>
+  </si>
+  <si>
+    <t>WOPHierarchyValidationTest</t>
+  </si>
+  <si>
+    <t>MPHierarchyValidationTest</t>
+  </si>
+  <si>
+    <t>MediatorHierarchyValidationTest</t>
+  </si>
+  <si>
+    <t>CMSNVFieldValidationsWithWOPTest</t>
+  </si>
+  <si>
+    <t>CMSNVFieldValidationsWithMPTest</t>
   </si>
 </sst>
 </file>
@@ -675,9 +756,16 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -795,7 +883,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -808,8 +896,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -832,62 +926,51 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -908,31 +991,43 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="20" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="20" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="21" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="22">
     <cellStyle name="Comma" xfId="19" builtinId="3"/>
@@ -2106,7 +2201,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="96" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScaleNormal="96" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2123,7 +2218,7 @@
     </row>
     <row r="2" spans="1:1" ht="409.5">
       <c r="A2" s="17" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -2258,6 +2353,469 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="32.625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.75" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="47.875" style="36" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="32.375" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="B7" s="16"/>
+      <c r="C7" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="http://jsonviewer.stack.hu/"/>
+    <hyperlink ref="A5" r:id="rId2" display="http://jsonviewer.stack.hu/"/>
+    <hyperlink ref="A6" r:id="rId3" display="http://jsonviewer.stack.hu/"/>
+    <hyperlink ref="A7" r:id="rId4" display="http://jsonviewer.stack.hu/"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="80.75" style="44" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="44"/>
+    <col min="3" max="3" width="71.875" style="44" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="89.5" style="44" customWidth="1"/>
+    <col min="5" max="5" width="55.5" style="44" customWidth="1"/>
+    <col min="6" max="6" width="11.875" style="44" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="44"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="63">
+      <c r="A2" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="47.25">
+      <c r="A3" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="F3" s="44" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="47.25">
+      <c r="A4" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="44" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1" display="http://jsonviewer.stack.hu/"/>
+    <hyperlink ref="A5" r:id="rId2" display="http://jsonviewer.stack.hu/"/>
+    <hyperlink ref="A6" r:id="rId3" display="http://jsonviewer.stack.hu/"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="105.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A5" r:id="rId1" display="http://jsonviewer.stack.hu/"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="38" style="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.125" style="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.375" style="37" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="37" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.5" style="6" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9" style="6" collapsed="1"/>
+    <col min="7" max="16384" width="9" style="37"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="362.25">
+      <c r="A2" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -2474,7 +3032,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -2611,7 +3169,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -2784,7 +3342,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -2833,34 +3391,34 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:C5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="26.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="C1" s="33" t="s">
         <v>156</v>
-      </c>
-      <c r="C1" s="33" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="34" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C2" s="35">
         <v>17399</v>
@@ -2868,10 +3426,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="34" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C3" s="35">
         <v>17404</v>
@@ -2879,24 +3437,46 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="34" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C4" s="35">
         <v>17405</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="36" t="s">
-        <v>163</v>
-      </c>
-      <c r="B5" t="s">
-        <v>164</v>
-      </c>
-      <c r="C5" s="37">
+      <c r="A5" s="45" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" s="46">
         <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" s="47">
+        <v>18314</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" s="47">
+        <v>18315</v>
       </c>
     </row>
   </sheetData>

--- a/AMCSmokeTest/ExcelFile/API_inputs.xlsx
+++ b/AMCSmokeTest/ExcelFile/API_inputs.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chaitanya\eclipse-workspace\AMCSmokeTest\ExcelFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chaitanya\Desktop\Smoke Backup\AMCSmokeTest\ExcelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13485" windowHeight="6060" tabRatio="903" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13485" windowHeight="6060" tabRatio="903" firstSheet="3" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="RLtoWOPMappingRule" sheetId="12" state="hidden" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="183">
   <si>
     <t>Content-Type</t>
   </si>
@@ -614,9 +614,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>FD105792</t>
-  </si>
-  <si>
     <t>simpleTest</t>
   </si>
   <si>
@@ -722,9 +719,6 @@
     <t>PRODUCT_INTENTION</t>
   </si>
   <si>
-    <t>ES_PRODUCT,p_episode_series,ES_PRODUCT,p_product_intention,ESP_INTENTION</t>
-  </si>
-  <si>
     <t>AIRING_ORDER</t>
   </si>
   <si>
@@ -747,6 +741,9 @@
   </si>
   <si>
     <t>CMSNVFieldValidationsWithMPTest</t>
+  </si>
+  <si>
+    <t>FD045444</t>
   </si>
 </sst>
 </file>
@@ -2218,7 +2215,7 @@
     </row>
     <row r="2" spans="1:1" ht="409.5">
       <c r="A2" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -2355,8 +2352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2383,11 +2380,11 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="41" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>34</v>
@@ -2395,35 +2392,35 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="40" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="40" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D4" s="43" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="40" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D5" s="43" t="s">
         <v>43</v>
@@ -2431,26 +2428,26 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="40" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="19" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="40" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -2538,7 +2535,7 @@
         <v>22</v>
       </c>
       <c r="E3" s="44" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F3" s="44" t="s">
         <v>20</v>
@@ -2555,7 +2552,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="44" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E4" s="44" t="s">
         <v>5</v>
@@ -2574,7 +2571,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2586,57 +2583,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
+      <c r="A1" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="16" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="A2" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="16" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="A3" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16" t="s">
         <v>37</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="A4" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="19" t="s">
         <v>37</v>
       </c>
       <c r="D4" s="43" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="16"/>
+      <c r="C5" s="19" t="s">
         <v>51</v>
       </c>
       <c r="D5" s="43" t="s">
@@ -2644,14 +2645,15 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C6" t="s">
-        <v>175</v>
-      </c>
-      <c r="D6" t="s">
-        <v>174</v>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -2670,7 +2672,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2685,7 +2687,7 @@
         <v>25</v>
       </c>
       <c r="B1" s="42" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C1" s="42" t="s">
         <v>28</v>
@@ -2713,7 +2715,7 @@
         <v>85</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2724,12 +2726,12 @@
         <v>85</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C5" t="s">
         <v>85</v>
@@ -2800,7 +2802,7 @@
         <v>81</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>104</v>
@@ -3332,7 +3334,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3342,7 +3344,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3393,7 +3395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -3415,7 +3417,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="34" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B2" s="35" t="s">
         <v>157</v>
@@ -3426,7 +3428,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="34" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B3" s="35" t="s">
         <v>157</v>
@@ -3437,7 +3439,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="34" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B4" s="35" t="s">
         <v>157</v>
@@ -3448,10 +3450,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>159</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>160</v>
       </c>
       <c r="C5" s="46">
         <v>1</v>
@@ -3459,7 +3461,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="16" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B6" s="47" t="s">
         <v>157</v>
@@ -3470,7 +3472,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="16" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B7" s="47" t="s">
         <v>157</v>

--- a/AMCSmokeTest/ExcelFile/API_inputs.xlsx
+++ b/AMCSmokeTest/ExcelFile/API_inputs.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chaitanya\Desktop\Smoke Backup\AMCSmokeTest\ExcelFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chaitanya\Desktop\changed Code\AMCSmokeTestNew\ExcelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13485" windowHeight="6060" tabRatio="903" firstSheet="3" activeTab="19"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13485" windowHeight="6060" tabRatio="903" firstSheet="3" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="RLtoWOPMappingRule" sheetId="12" state="hidden" r:id="rId1"/>
@@ -2352,8 +2352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2467,7 +2467,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2570,8 +2570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2583,37 +2583,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="16" t="s">
+      <c r="A1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="16" t="s">
+      <c r="A2" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16" t="s">
+      <c r="C2" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="16" t="s">
+      <c r="A3" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16" t="s">
+      <c r="C3" t="s">
         <v>37</v>
       </c>
       <c r="D3" s="16" t="s">
@@ -2621,11 +2619,10 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="16" t="s">
+      <c r="A4" t="s">
         <v>170</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D4" s="43" t="s">
@@ -2633,11 +2630,10 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D5" s="43" t="s">
@@ -2645,14 +2641,13 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16" t="s">
+      <c r="C6" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" t="s">
         <v>173</v>
       </c>
     </row>
@@ -2672,7 +2667,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3334,7 +3329,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>

--- a/AMCSmokeTest/ExcelFile/API_inputs.xlsx
+++ b/AMCSmokeTest/ExcelFile/API_inputs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chaitanya\Desktop\changed Code\AMCSmokeTestNew\ExcelFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CMSNVSmokeTest\AMCSmokeTest\ExcelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="182">
   <si>
     <t>Content-Type</t>
   </si>
@@ -705,9 +705,6 @@
   </si>
   <si>
     <t>tdc:TITLE_CUST_field_71</t>
-  </si>
-  <si>
-    <t>episodeNumber</t>
   </si>
   <si>
     <t>EPISODE_NUMBER</t>
@@ -2404,19 +2401,19 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="40" t="s">
         <v>162</v>
       </c>
       <c r="D4" s="43" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="40" t="s">
@@ -2428,26 +2425,26 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="40" t="s">
         <v>162</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="40" t="s">
         <v>162</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -2568,10 +2565,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2619,46 +2616,34 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>170</v>
+      <c r="A4" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D4" s="43" t="s">
-        <v>175</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="43" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C5" t="s">
         <v>92</v>
       </c>
-      <c r="D6" t="s">
-        <v>173</v>
+      <c r="D5" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" display="http://jsonviewer.stack.hu/"/>
+    <hyperlink ref="A4" r:id="rId1" display="http://jsonviewer.stack.hu/"/>
     <hyperlink ref="A5" r:id="rId2" display="http://jsonviewer.stack.hu/"/>
-    <hyperlink ref="A6" r:id="rId3" display="http://jsonviewer.stack.hu/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2721,7 +2706,7 @@
         <v>85</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3339,7 +3324,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -3412,7 +3397,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B2" s="35" t="s">
         <v>157</v>
@@ -3423,7 +3408,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B3" s="35" t="s">
         <v>157</v>
@@ -3434,7 +3419,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B4" s="35" t="s">
         <v>157</v>
@@ -3456,7 +3441,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B6" s="47" t="s">
         <v>157</v>
@@ -3467,7 +3452,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B7" s="47" t="s">
         <v>157</v>

--- a/AMCSmokeTest/ExcelFile/API_inputs.xlsx
+++ b/AMCSmokeTest/ExcelFile/API_inputs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13485" windowHeight="6060" tabRatio="903" firstSheet="3" activeTab="21"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13485" windowHeight="6060" tabRatio="903" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="RLtoWOPMappingRule" sheetId="12" state="hidden" r:id="rId1"/>
@@ -599,9 +599,6 @@
     <t>Chaitanya.Sunkara@amcnetworks.com</t>
   </si>
   <si>
-    <t>Walking456</t>
-  </si>
-  <si>
     <t>TestCaseID</t>
   </si>
   <si>
@@ -741,6 +738,9 @@
   </si>
   <si>
     <t>FD045444</t>
+  </si>
+  <si>
+    <t>Speed!!0230</t>
   </si>
 </sst>
 </file>
@@ -2212,7 +2212,7 @@
     </row>
     <row r="2" spans="1:1" ht="409.5">
       <c r="A2" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2377,11 +2377,11 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="41" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>34</v>
@@ -2389,35 +2389,35 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="40" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D4" s="43" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D5" s="43" t="s">
         <v>43</v>
@@ -2425,26 +2425,26 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2532,7 +2532,7 @@
         <v>22</v>
       </c>
       <c r="E3" s="44" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F3" s="44" t="s">
         <v>20</v>
@@ -2549,7 +2549,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="44" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E4" s="44" t="s">
         <v>5</v>
@@ -2567,7 +2567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -2612,7 +2612,7 @@
         <v>37</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2634,7 +2634,7 @@
         <v>92</v>
       </c>
       <c r="D5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -2667,7 +2667,7 @@
         <v>25</v>
       </c>
       <c r="B1" s="42" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C1" s="42" t="s">
         <v>28</v>
@@ -2695,7 +2695,7 @@
         <v>85</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2706,12 +2706,12 @@
         <v>85</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C5" t="s">
         <v>85</v>
@@ -2782,7 +2782,7 @@
         <v>81</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>104</v>
@@ -3324,7 +3324,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3337,14 +3337,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="32.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3360,7 +3360,7 @@
         <v>152</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>153</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -3386,21 +3386,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="C1" s="33" t="s">
         <v>155</v>
-      </c>
-      <c r="C1" s="33" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="34" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C2" s="35">
         <v>17399</v>
@@ -3408,10 +3408,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C3" s="35">
         <v>17404</v>
@@ -3419,10 +3419,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C4" s="35">
         <v>17405</v>
@@ -3430,10 +3430,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>158</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>159</v>
       </c>
       <c r="C5" s="46">
         <v>1</v>
@@ -3441,10 +3441,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C6" s="47">
         <v>18314</v>
@@ -3452,10 +3452,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C7" s="47">
         <v>18315</v>

--- a/AMCSmokeTest/ExcelFile/API_inputs.xlsx
+++ b/AMCSmokeTest/ExcelFile/API_inputs.xlsx
@@ -3338,7 +3338,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>

--- a/AMCSmokeTest/ExcelFile/API_inputs.xlsx
+++ b/AMCSmokeTest/ExcelFile/API_inputs.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CMSNVSmokeTest\AMCSmokeTest\ExcelFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chaitanya\Desktop\changed Code\AMCSmokeTestNew\ExcelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13485" windowHeight="6060" tabRatio="903" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13485" windowHeight="6060" tabRatio="903" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="RLtoWOPMappingRule" sheetId="12" state="hidden" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="183">
   <si>
     <t>Content-Type</t>
   </si>
@@ -704,6 +704,9 @@
     <t>tdc:TITLE_CUST_field_71</t>
   </si>
   <si>
+    <t>episodeNumber</t>
+  </si>
+  <si>
     <t>EPISODE_NUMBER</t>
   </si>
   <si>
@@ -737,10 +740,10 @@
     <t>CMSNVFieldValidationsWithMPTest</t>
   </si>
   <si>
-    <t>FD045444</t>
-  </si>
-  <si>
     <t>Speed!!0230</t>
+  </si>
+  <si>
+    <t>FD105792</t>
   </si>
 </sst>
 </file>
@@ -2401,19 +2404,19 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="19" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="40" t="s">
         <v>161</v>
       </c>
       <c r="D4" s="43" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="19" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="40" t="s">
@@ -2425,26 +2428,26 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="19" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="40" t="s">
         <v>161</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="19" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="40" t="s">
         <v>161</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -2565,10 +2568,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2616,34 +2619,46 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
-        <v>50</v>
+      <c r="A4" t="s">
+        <v>169</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="D4" s="43" t="s">
-        <v>43</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>92</v>
       </c>
-      <c r="D5" t="s">
-        <v>171</v>
+      <c r="D6" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" display="http://jsonviewer.stack.hu/"/>
+    <hyperlink ref="C4" r:id="rId1" display="http://jsonviewer.stack.hu/"/>
     <hyperlink ref="A5" r:id="rId2" display="http://jsonviewer.stack.hu/"/>
+    <hyperlink ref="A6" r:id="rId3" display="http://jsonviewer.stack.hu/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -2706,7 +2721,7 @@
         <v>85</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3313,8 +3328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3324,7 +3339,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3337,14 +3352,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="32.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3397,7 +3412,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="34" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B2" s="35" t="s">
         <v>156</v>
@@ -3408,7 +3423,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="34" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B3" s="35" t="s">
         <v>156</v>
@@ -3419,7 +3434,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="34" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B4" s="35" t="s">
         <v>156</v>
@@ -3441,7 +3456,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="16" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B6" s="47" t="s">
         <v>156</v>
@@ -3452,7 +3467,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="16" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B7" s="47" t="s">
         <v>156</v>

--- a/AMCSmokeTest/ExcelFile/API_inputs.xlsx
+++ b/AMCSmokeTest/ExcelFile/API_inputs.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chaitanya\Desktop\changed Code\AMCSmokeTestNew\ExcelFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CMSNVSmokeTest\AMCSmokeTest\ExcelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13485" windowHeight="6060" tabRatio="903" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13485" windowHeight="6060" tabRatio="903" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="RLtoWOPMappingRule" sheetId="12" state="hidden" r:id="rId1"/>
@@ -584,9 +584,6 @@
     <t>API name</t>
   </si>
   <si>
-    <t>M0n0c3pt@Mju</t>
-  </si>
-  <si>
     <t>jdbc:sqlserver://Dev-adam03\esbsql</t>
   </si>
   <si>
@@ -744,6 +741,9 @@
   </si>
   <si>
     <t>FD105792</t>
+  </si>
+  <si>
+    <t>M0n0c3pt@Mju1</t>
   </si>
 </sst>
 </file>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="2" spans="1:1" ht="409.5">
       <c r="A2" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -2380,11 +2380,11 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>34</v>
@@ -2392,35 +2392,35 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="40" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D4" s="43" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D5" s="43" t="s">
         <v>43</v>
@@ -2428,26 +2428,26 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2535,7 +2535,7 @@
         <v>22</v>
       </c>
       <c r="E3" s="44" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F3" s="44" t="s">
         <v>20</v>
@@ -2552,7 +2552,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="44" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E4" s="44" t="s">
         <v>5</v>
@@ -2615,18 +2615,18 @@
         <v>37</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D4" s="43" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2648,7 +2648,7 @@
         <v>92</v>
       </c>
       <c r="D6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -2682,7 +2682,7 @@
         <v>25</v>
       </c>
       <c r="B1" s="42" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C1" s="42" t="s">
         <v>28</v>
@@ -2710,7 +2710,7 @@
         <v>85</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2721,12 +2721,12 @@
         <v>85</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C5" t="s">
         <v>85</v>
@@ -2797,7 +2797,7 @@
         <v>81</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>104</v>
@@ -3328,8 +3328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3339,7 +3339,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -3364,18 +3364,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3401,21 +3401,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="C1" s="33" t="s">
         <v>154</v>
-      </c>
-      <c r="C1" s="33" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="34" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C2" s="35">
         <v>17399</v>
@@ -3423,10 +3423,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C3" s="35">
         <v>17404</v>
@@ -3434,10 +3434,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C4" s="35">
         <v>17405</v>
@@ -3445,10 +3445,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="45" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>157</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>158</v>
       </c>
       <c r="C5" s="46">
         <v>1</v>
@@ -3456,10 +3456,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C6" s="47">
         <v>18314</v>
@@ -3467,10 +3467,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C7" s="47">
         <v>18315</v>
@@ -3505,8 +3505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3528,18 +3528,21 @@
     </row>
     <row r="2" spans="1:3" ht="16.5">
       <c r="A2" s="32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B2" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="32" t="s">
-        <v>148</v>
+      <c r="C2" s="19" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
